--- a/实验数据/冰水混合/03/pdata.xlsx
+++ b/实验数据/冰水混合/03/pdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\实验室\2024工作\毕业论文-冰水混合测量\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\实验室\2024工作\毕业论文-表面介质识别\multispectral-recognition\实验数据\冰水混合\03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7409713A-EA60-43E8-8FD8-17BA7EED1767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2807257-BFF9-43EA-BFFF-444BA48777F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,7 +372,7 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
